--- a/documents/governance/FMG/FMG Tracking Sheet.xlsx
+++ b/documents/governance/FMG/FMG Tracking Sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sulu Filing\HL7\FHIR\Fhir SVN\documents\governance\FMG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="480" windowWidth="18930" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="17700" yWindow="0" windowWidth="11100" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="Work Groups" sheetId="3" r:id="rId1"/>
@@ -18,17 +13,17 @@
     <sheet name="FMG Members" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$4:$K$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Groups'!$A$1:$I$32</definedName>
-    <definedName name="Members">'FMG Members'!$A$2:$A$10</definedName>
-    <definedName name="WorkGroups">'Work Groups'!$B$2:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resources!$A$4:$Z$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Work Groups'!$A$1:$I$34</definedName>
+    <definedName name="Members">'FMG Members'!$A$2:$A$11</definedName>
+    <definedName name="WorkGroups">'Work Groups'!$B$2:$B$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="330">
   <si>
     <t>Patient Care</t>
   </si>
@@ -339,9 +334,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>Problem</t>
-  </si>
-  <si>
     <t>Procedure</t>
   </si>
   <si>
@@ -795,9 +787,6 @@
     <t>Was OrderRequest</t>
   </si>
   <si>
-    <t>Picture</t>
-  </si>
-  <si>
     <t>Questionaire</t>
   </si>
   <si>
@@ -894,9 +883,6 @@
     <t>David H.</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>Messaging</t>
   </si>
   <si>
@@ -991,13 +977,49 @@
   </si>
   <si>
     <t>Hugh - done</t>
+  </si>
+  <si>
+    <t>Search/Query</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Was Problem</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Was Picture</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>vMR</t>
+  </si>
+  <si>
+    <t>US Realm Task Force</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +1089,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1182,7 +1211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,6 +1331,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1310,63 +1346,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1451,7 +1431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1486,7 +1466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1695,14 +1675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1700,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>46</v>
@@ -1733,27 +1712,27 @@
         <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>49</v>
@@ -1775,73 +1754,75 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>71</v>
@@ -1851,24 +1832,24 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>71</v>
@@ -1878,24 +1859,24 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>187</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>71</v>
@@ -1905,24 +1886,24 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>187</v>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>71</v>
@@ -1932,24 +1913,24 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>71</v>
@@ -1959,109 +1940,109 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="6" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>40</v>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E13" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>71</v>
@@ -2069,28 +2050,26 @@
       <c r="G13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -2098,26 +2077,28 @@
       <c r="G14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="I14" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>71</v>
@@ -2127,24 +2108,24 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>7</v>
+      <c r="D16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>71</v>
@@ -2154,24 +2135,24 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>71</v>
@@ -2181,120 +2162,118 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>9</v>
+      <c r="E19" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>200</v>
+        <v>148</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>158</v>
+      <c r="G20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>67</v>
@@ -2302,28 +2281,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>67</v>
@@ -2331,127 +2310,129 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>192</v>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>202</v>
+      <c r="G23" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>49</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>9</v>
+      <c r="D27" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>71</v>
@@ -2461,24 +2442,24 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>40</v>
+      <c r="D28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>71</v>
@@ -2488,24 +2469,24 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>7</v>
+      <c r="E29" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>71</v>
@@ -2515,24 +2496,24 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>71</v>
@@ -2542,24 +2523,24 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>71</v>
@@ -2569,24 +2550,24 @@
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>71</v>
@@ -2596,70 +2577,86 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="16" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
@@ -2671,12 +2668,12 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
@@ -2693,11 +2690,9 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>224</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
         <v>11</v>
       </c>
@@ -2707,16 +2702,14 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>226</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
         <v>11</v>
       </c>
@@ -2726,15 +2719,15 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>11</v>
@@ -2745,18 +2738,18 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2764,18 +2757,18 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2783,14 +2776,16 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>226</v>
+      </c>
       <c r="C44" s="8" t="s">
         <v>10</v>
       </c>
@@ -2800,14 +2795,16 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="C45" s="8" t="s">
         <v>10</v>
       </c>
@@ -2817,16 +2814,16 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2834,16 +2831,16 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2851,12 +2848,12 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
@@ -2871,19 +2868,48 @@
         <v>52</v>
       </c>
     </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I32">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Developing"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I34">
     <sortState ref="A2:I28">
       <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E33 D35:E41 D42:E48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E35 D37:E50">
       <formula1>Members</formula1>
     </dataValidation>
   </dataValidations>
@@ -2895,13 +2921,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I76" sqref="I76"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,26 +2954,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="25">
         <f ca="1">TODAY()</f>
-        <v>41443</v>
+        <v>41549</v>
       </c>
       <c r="M1" s="25">
         <f ca="1">DATE(YEAR($L$1),MONTH($L$1)-1,DAY($L$1))</f>
-        <v>41412</v>
+        <v>41519</v>
       </c>
     </row>
     <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -2955,7 +2981,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -3017,7 +3043,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -3076,31 +3102,31 @@
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>173</v>
-      </c>
       <c r="E4" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>308</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>311</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>83</v>
@@ -3109,201 +3135,222 @@
         <v>84</v>
       </c>
       <c r="L4" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="N4" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="O4" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="P4" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="Q4" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="R4" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="S4" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="T4" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="U4" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="V4" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="W4" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="X4" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="Y4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Z4" s="27" t="s">
         <v>242</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>212</v>
+        <v>170</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
+      <c r="H5" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>311</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>169</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="32"/>
       <c r="J6" s="22" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>314</v>
+        <v>170</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>245</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>102</v>
       </c>
+      <c r="E7" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="F7" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>168</v>
+      </c>
       <c r="J7" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>169</v>
+        <v>89</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>103</v>
+        <v>193</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>287</v>
+        <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>169</v>
+        <v>310</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>104</v>
+        <v>170</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>165</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>102</v>
@@ -3311,1434 +3358,1628 @@
       <c r="E9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" t="s">
-        <v>192</v>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>169</v>
+      <c r="K9" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>95</v>
+        <v>175</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>292</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>96</v>
+        <v>114</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>209</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="W11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y11" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>319</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
+        <v>320</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>244</v>
+        <v>85</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>114</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
       <c r="I13" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>110</v>
+        <v>175</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>114</v>
+        <v>169</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>7</v>
       </c>
+      <c r="G15" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>139</v>
+        <v>163</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>135</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
       <c r="I17" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z17" s="22"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>106</v>
+        <v>295</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>296</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>320</v>
+        <v>115</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>256</v>
+        <v>295</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="F19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="F20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y20" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
         <v>8</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y22" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z24" s="22"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>317</v>
+        <v>175</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" t="s">
-        <v>312</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="W25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>100</v>
+        <v>163</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>314</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>97</v>
       </c>
+      <c r="D26" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>315</v>
+      </c>
       <c r="F26" s="22" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>309</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y27" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="H26" t="s">
-        <v>312</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X26" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y26" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="I29" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W30" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="X30" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y30" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z30" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F31" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y27" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" t="s">
-        <v>312</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" t="s">
-        <v>312</v>
-      </c>
-      <c r="H30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G31" t="s">
-        <v>312</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="H31" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R31" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S31" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T31" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U31" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W31" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="X31" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y31" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z31" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>143</v>
+        <v>178</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>179</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G32" t="s">
-        <v>192</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X32" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y32" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="33" t="s">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y33" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="W34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y34" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z34" s="22"/>
+    </row>
+    <row r="35" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G34" t="s">
-        <v>192</v>
-      </c>
-      <c r="H34" t="s">
-        <v>312</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>2</v>
-      </c>
+      <c r="E35" s="22"/>
       <c r="F35" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>312</v>
+        <v>7</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J35" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>169</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="W35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z35" s="22"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>107</v>
+        <v>163</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
-      </c>
-      <c r="H36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
         <v>40</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y36" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>165</v>
+        <v>192</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>321</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" t="s">
+        <v>309</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G37" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J37" s="22" t="s">
+      <c r="F38" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" t="s">
+        <v>309</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X37" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y37" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-    </row>
-    <row r="39" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>108</v>
+        <v>194</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22" t="s">
-        <v>320</v>
+      <c r="F39" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="H39" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J39" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-    </row>
-    <row r="40" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>142</v>
+        <v>194</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="22"/>
+        <v>2</v>
+      </c>
       <c r="F40" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
-        <v>192</v>
-      </c>
       <c r="I40" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J40" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="Q40" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="R40" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="T40" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="U40" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V40" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="V40" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="W40" s="22" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="X40" s="22" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="Y40" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z40" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="S41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y41" s="22" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>246</v>
+        <v>178</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>286</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="S42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y42" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>251</v>
+        <v>194</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>107</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J43" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M43" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R43" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W43" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="X43" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y43" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z43" s="22" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>183</v>
+      <c r="B44" s="41" t="s">
+        <v>211</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>185</v>
+        <v>119</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>212</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H44" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J44" s="22" t="s">
         <v>86</v>
@@ -4747,116 +4988,68 @@
         <v>87</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="N44" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="O44" s="22" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>249</v>
+        <v>192</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>187</v>
+        <v>94</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" t="s">
         <v>40</v>
       </c>
-      <c r="H45" t="s">
-        <v>192</v>
-      </c>
       <c r="I45" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X45" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y45" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>211</v>
+        <v>193</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>187</v>
+        <v>297</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
-        <v>192</v>
+        <v>6</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J46" s="22" t="s">
         <v>86</v>
@@ -4865,398 +5058,430 @@
         <v>87</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X46" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y46" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="O46" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>184</v>
+        <v>193</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>252</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>185</v>
+        <v>94</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s">
-        <v>192</v>
+        <v>94</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N47" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="Q47" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R47" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="T47" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="U47" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="V47" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="W47" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="X47" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="Y47" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>85</v>
+        <v>193</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R48" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S48" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T48" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U48" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="X48" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y48" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z48" s="22" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>88</v>
+        <v>163</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
         <v>40</v>
       </c>
-      <c r="H49" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X49" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y49" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>90</v>
+        <v>163</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F50" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" t="s">
         <v>7</v>
       </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>9</v>
+      <c r="H50" t="s">
+        <v>309</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="W50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X50" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y50" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>134</v>
+        <v>163</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>313</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>9</v>
+        <v>302</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="N51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X51" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y51" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
+      </c>
+      <c r="O51" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>301</v>
+        <v>170</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>304</v>
+        <v>7</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>312</v>
+        <v>191</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J52" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="K52" s="22" t="s">
+      <c r="K53" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L52" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M52" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N52" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="O52" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J53" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="K53" s="33" t="s">
-        <v>204</v>
+      <c r="L53" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="S53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="T53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="V53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="X53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y53" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>302</v>
+        <v>192</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>313</v>
+        <v>186</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>168</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>86</v>
@@ -5264,891 +5489,805 @@
       <c r="K54" s="22" t="s">
         <v>87</v>
       </c>
+      <c r="L54" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="O54" s="22" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>297</v>
+        <v>192</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>323</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X55" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y55" s="22" t="s">
-        <v>169</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>253</v>
+        <v>192</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>254</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E56" s="22" t="s">
-        <v>254</v>
-      </c>
       <c r="F56" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="22" t="s">
-        <v>6</v>
+      <c r="H56" t="s">
+        <v>8</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X56" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y56" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>215</v>
+        <v>163</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>304</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="22" t="s">
-        <v>7</v>
+      <c r="H57" t="s">
+        <v>309</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L57" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M57" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q57" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R57" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S57" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T57" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U57" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W57" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="X57" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y57" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z57" s="22" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>89</v>
+        <v>175</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>290</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="Q58" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="R58" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S58" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="T58" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="U58" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
+      </c>
+      <c r="V58" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="Y58" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z58" s="22" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>252</v>
+        <v>178</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J59" s="22" t="s">
-        <v>89</v>
+        <v>114</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y59" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>291</v>
+        <v>175</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N60" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q60" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="R60" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S60" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="T60" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="U60" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V60" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="W60" s="22" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="X60" s="22" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="Y60" s="22" t="s">
-        <v>149</v>
+        <v>256</v>
+      </c>
+      <c r="Z60" s="22" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>290</v>
+        <v>178</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>318</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="K61" s="22" t="s">
         <v>87</v>
       </c>
+      <c r="L61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="R61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="W61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X61" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y61" s="22" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>289</v>
+        <v>193</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>183</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>120</v>
+        <v>184</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s">
+        <v>191</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="K63" s="22" t="s">
         <v>87</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="N63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q63" s="22" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="R63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y63" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>181</v>
+        <v>293</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X64" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y64" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>288</v>
+        <v>192</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X65" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y65" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>22</v>
+        <v>192</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>295</v>
+        <v>85</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="K67" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K69" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X69" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y69" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K70" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X70" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y70" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="K71" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="N71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="S71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="V71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="X71" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y71" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="K72" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="T72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="V72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="W72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="X72" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y72" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="K73" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L73" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="M73" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q73" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="R73" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S73" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="T73" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U73" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="W73" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="X73" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y73" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z73" s="22" t="s">
-        <v>258</v>
-      </c>
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="33"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="33"/>
+    </row>
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+    </row>
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+    </row>
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J71" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="K71" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="K72" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+    </row>
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+    </row>
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
+      <c r="Z74" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K73">
+  <autoFilter ref="A4:Z74">
     <filterColumn colId="10">
-      <filters>
+      <filters blank="1">
         <filter val="Draft"/>
         <filter val="Proposed"/>
         <filter val="Semi-stable"/>
       </filters>
     </filterColumn>
+    <sortState ref="A5:Z73">
+      <sortCondition ref="B4:B73"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A5:X70">
     <sortCondition ref="A5:A70"/>
@@ -6157,53 +6296,25 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L73:O73 L21:Z72">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
-      <formula>AND($M$1&gt;=L$3,OR(L21="",L21="Started",L21="Draft"))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
-      <formula>AND($M$1&gt;=L$2,OR(L21="",L21="Started"))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>AND($L$1&gt;=L$3,OR(L21="",L21="Started",L21="Draft"))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>AND($L$1&gt;=L$2,OR(L21="",L21="Started"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:Z20">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>AND($M$1&gt;=M$3,OR(M5="",M5="Started",M5="Draft"))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>AND($M$1&gt;=M$2,OR(M5="",M5="Started"))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($L$1&gt;=M$3,OR(M5="",M5="Started",M5="Draft"))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND($L$1&gt;=M$2,OR(M5="",M5="Started"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L20">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="L67:O67 L5:Z66 L68:Z74">
+    <cfRule type="expression" dxfId="3" priority="13" stopIfTrue="1">
       <formula>AND($M$1&gt;=L$3,OR(L5="",L5="Started",L5="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="14" stopIfTrue="1">
       <formula>AND($M$1&gt;=L$2,OR(L5="",L5="Started"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>AND($L$1&gt;=L$3,OR(L5="",L5="Started",L5="Draft"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>AND($L$1&gt;=L$2,OR(L5="",L5="Started"))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:Z72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L68:Z74 L5:Z56 L57:Z66">
       <formula1>"Started,Draft,Complete,Reviewed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5:C72">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C68:C74 C5:C56 C57:C66">
       <formula1>WorkGroups</formula1>
     </dataValidation>
   </dataValidations>
@@ -6242,7 +6353,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6254,23 +6365,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6278,39 +6389,39 @@
         <v>82</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6318,7 +6429,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,122 +6439,122 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6454,10 +6565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6484,32 +6595,37 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
